--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WEST_VIRGINIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WEST_VIRGINIA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C13">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C15">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -737,12 +737,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C27">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C28">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C37">
@@ -916,7 +916,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C40">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C46">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C48">
@@ -1090,7 +1090,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C53">
@@ -1134,7 +1134,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C56">
@@ -1160,7 +1160,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C58">
@@ -1173,7 +1173,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C59">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C77">
@@ -1450,7 +1450,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C78">
@@ -1476,7 +1476,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C80">
@@ -1606,7 +1606,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C90">
@@ -1619,7 +1619,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C91">
@@ -1663,7 +1663,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C94">
@@ -1676,7 +1676,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C95">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C99">
@@ -1974,7 +1974,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C116">
@@ -2104,41 +2104,6 @@
       </c>
       <c r="D125">
         <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/WEST_VIRGINIA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/WEST_VIRGINIA_2019.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San José Del Progreso</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Miguel Peras</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santa María Ozolotepec</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Santiago Comaltepec</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1630,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1700,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1713,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1744,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1757,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1788,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -1858,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -1871,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1902,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1915,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1946,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -1959,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -1972,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -1985,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1998,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -2011,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2024,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2055,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -2068,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2081,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Total</t>
